--- a/DB수업/04번째날/03_fk.xlsx
+++ b/DB수업/04번째날/03_fk.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +43,9 @@
   </si>
   <si>
     <t>청국장</t>
+  </si>
+  <si>
+    <t>청국장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -77,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>햔식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중식</t>
   </si>
   <si>
@@ -125,6 +123,100 @@
   </si>
   <si>
     <t>외래키(=참조키)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름(food_category)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식명(food_truck)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민트덮밥</t>
+  </si>
+  <si>
+    <t>타이어</t>
+  </si>
+  <si>
+    <t>진짜스펀지케이크</t>
+  </si>
+  <si>
+    <t>비빔밥</t>
+  </si>
+  <si>
+    <t>김치전</t>
+  </si>
+  <si>
+    <t>취두부</t>
+  </si>
+  <si>
+    <t>도삭면</t>
+  </si>
+  <si>
+    <t>유산슬</t>
+  </si>
+  <si>
+    <t>초밥</t>
+  </si>
+  <si>
+    <t>오꼬노미 야끼</t>
+  </si>
+  <si>
+    <t>라멘</t>
+  </si>
+  <si>
+    <t>스파게티</t>
+  </si>
+  <si>
+    <t>스테이크</t>
+  </si>
+  <si>
+    <t>청어조림</t>
+  </si>
+  <si>
+    <t>오렌지탕</t>
+  </si>
+  <si>
+    <t>초코파이 찌개</t>
+  </si>
+  <si>
+    <t>파인애플 매운탕</t>
+  </si>
+  <si>
+    <t>토룡탕</t>
+  </si>
+  <si>
+    <t>드래곤 덮밥</t>
+  </si>
+  <si>
+    <t>삼치 가시 찜</t>
+  </si>
+  <si>
+    <t>마우스</t>
+  </si>
+  <si>
+    <t>키보드</t>
+  </si>
+  <si>
+    <t>모니터</t>
+  </si>
+  <si>
+    <t>아아</t>
+  </si>
+  <si>
+    <t>쉬폰케이크</t>
+  </si>
+  <si>
+    <t>아이스크림케이크</t>
+  </si>
+  <si>
+    <t>그룹별로 묶음 group by, group by 된 것들 중에서 특정한 데이터만 추출하는 것(=where같은 것) having</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +254,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0099"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -235,55 +369,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -372,10 +457,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -385,12 +473,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -403,25 +491,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,6 +521,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0099"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -463,8 +559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4149585" y="2542760"/>
-          <a:ext cx="1416327" cy="538370"/>
+          <a:off x="4949271" y="2577547"/>
+          <a:ext cx="2127389" cy="543340"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -763,101 +859,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="B5:K59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>6000</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7000</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6500</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8">
-        <v>8000</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:K19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -866,21 +877,21 @@
         <v>1</v>
       </c>
       <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -890,37 +901,37 @@
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="11">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="5">
         <v>6000</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>11</v>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="J7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="D8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
         <v>7000</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>12</v>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="J8">
         <v>4</v>
@@ -930,16 +941,16 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5">
         <v>6500</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="I9" t="s">
@@ -953,17 +964,17 @@
       </c>
     </row>
     <row r="10" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>4</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>8000</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="E10" s="14">
-        <v>8000</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="I10" t="s">
         <v>23</v>
@@ -976,7 +987,7 @@
       </c>
     </row>
     <row r="11" spans="3:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="11" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
@@ -993,44 +1004,44 @@
       <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="5">
         <v>6000</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="I14">
@@ -1041,36 +1052,36 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="D15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5">
         <v>7000</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
       <c r="I15">
         <v>3</v>
       </c>
       <c r="J15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="11">
-        <v>3</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="E16" s="5">
         <v>6500</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="7">
         <v>1</v>
       </c>
       <c r="I16">
@@ -1080,17 +1091,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="13">
+    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="8">
         <v>4</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="9">
         <v>8000</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="10">
         <v>3</v>
       </c>
       <c r="I17">
@@ -1100,7 +1111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I18">
         <v>6</v>
       </c>
@@ -1108,12 +1119,640 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>7</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5">
+        <v>6000</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>7000</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="5">
+        <v>6500</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="8">
+        <v>4</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="9">
+        <v>8000</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="12">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="12">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f>AVERAGE(D30,D48:D50)</f>
+        <v>6175</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>6175</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="13">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="13">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(D31:D32,D54:D56)</f>
+        <v>53360</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>53360</v>
+      </c>
+      <c r="J31">
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="13">
+        <v>300</v>
+      </c>
+      <c r="E32" s="13">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>5500</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(D33:D38)</f>
+        <v>5500</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>5166.6666666666597</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1">
+        <v>5500</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>7833.3333333333303</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>29333.333333333299</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>7</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>220833.33333333299</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5500</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>8</v>
+      </c>
+      <c r="H37">
+        <v>82833.333333333299</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>9</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="16">
+        <v>3000</v>
+      </c>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f>AVERAGE(D39:D41)</f>
+        <v>5166.666666666667</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" s="16">
+        <v>4500</v>
+      </c>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="16">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="17">
+        <v>12000</v>
+      </c>
+      <c r="E42" s="17">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <f>AVERAGE(D42:D44)</f>
+        <v>7833.333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="17">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="17">
+        <v>9000</v>
+      </c>
+      <c r="E44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>16</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="18">
+        <v>16000</v>
+      </c>
+      <c r="E45" s="18">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f>AVERAGE(D45:D47)</f>
+        <v>29333.333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>17</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="18">
+        <v>57000</v>
+      </c>
+      <c r="E46" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>18</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="18">
+        <v>15000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="12">
+        <v>19</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="12">
+        <v>18000</v>
+      </c>
+      <c r="E48" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12">
+        <v>20</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="12">
+        <v>500</v>
+      </c>
+      <c r="E49" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="12">
+        <v>21</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E50" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>22</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="15">
+        <v>12000</v>
+      </c>
+      <c r="E51" s="15">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(D51:D53)</f>
+        <v>220833.33333333334</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>23</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="15">
+        <v>650000</v>
+      </c>
+      <c r="E52" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>24</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="15">
+        <v>500</v>
+      </c>
+      <c r="E53" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>25</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="13">
+        <v>7500</v>
+      </c>
+      <c r="E54" s="13">
+        <v>7</v>
+      </c>
+      <c r="F54">
+        <f>AVERAGE(D54:D56,D31:D32)</f>
+        <v>53360</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>26</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" s="13">
+        <v>130000</v>
+      </c>
+      <c r="E55" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>27</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="13">
+        <v>99000</v>
+      </c>
+      <c r="E56" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>28</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="14">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="14">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <f>AVERAGE(D57:D59)</f>
+        <v>82833.333333333328</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>29</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="14">
+        <v>160000</v>
+      </c>
+      <c r="E58" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>30</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" s="14">
+        <v>85000</v>
+      </c>
+      <c r="E59" s="14">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
